--- a/backend/Random data/Course Students.xlsx
+++ b/backend/Random data/Course Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mihir\Projects\Online Examination System\backend\Random data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mihir\Projects\online-examination-system\backend\Random data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD9BAEA-5DBA-48C8-A5FD-E1566A7ADBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C87A498-C6DE-4EB9-A668-EE275D7991AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>mihirkkarandikar@gmail.com</t>
   </si>
   <si>
-    <t>cse200001044@iiti.ac.in</t>
+    <t>cse200001044@alum.iiti.ac.in</t>
   </si>
 </sst>
 </file>
@@ -365,22 +365,22 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
